--- a/各類總表/工作流程.xlsx
+++ b/各類總表/工作流程.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\中原資工 大資盃\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\中原資工 大資盃\各類總表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240203B0-AA3A-45C4-A7A4-5D5492CE12AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681C2538-8704-4A28-A4F0-F1BD5E9D4D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>北資盃</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作人員第一次會議</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聯絡裁判</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,13 +173,6 @@
   </si>
   <si>
     <t>公關長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>確認所有舉辦項目
-撰寫企畫書
-撰寫秩序冊
-撰寫公文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,6 +202,62 @@
   </si>
   <si>
     <t>彙整參賽資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要日程及事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期期末考周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作人員招募會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰寫秩序冊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認所有舉辦項目
+撰寫企畫書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰寫公文</t>
+  </si>
+  <si>
+    <t>2/25(六)-2/28(二)228連假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/22(四)-6/25(日)端午連假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/25(六)-2/28(二)229連假</t>
+  </si>
+  <si>
+    <t>4/1(六)-4/5(三)清明連假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/1(六)-4/6(三)清明連假</t>
+  </si>
+  <si>
+    <t>重要事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/20(五)-1/30(日)農曆年</t>
+  </si>
+  <si>
+    <t>1/20(五)-1/31(日)農曆年</t>
+  </si>
+  <si>
+    <t>製作報名表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,20 +317,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -569,14 +610,14 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -594,101 +635,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44909</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44916</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -696,13 +743,13 @@
         <v>44923</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -710,93 +757,54 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44930</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>44927</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44937</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>44934</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -806,145 +814,122 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44944</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
+        <v>44941</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44948</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44951</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44958</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+        <v>44955</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44965</v>
+        <v>44962</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44979</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>44969</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44976</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>44986</v>
+        <v>44983</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>44993</v>
+        <v>44990</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45000</v>
+        <v>44997</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45004</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45007</v>
+        <v>45011</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45014</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>45018</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -961,90 +946,92 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45021</v>
+        <v>45025</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45028</v>
-      </c>
-      <c r="B24" s="1" t="s">
+        <v>45032</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45035</v>
+        <v>45039</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45042</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45049</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45056</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45063</v>
+        <v>45067</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45070</v>
-      </c>
-      <c r="B30" s="1" t="s">
+        <v>45074</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45077</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>45112</v>
-      </c>
-      <c r="B36" s="1" t="s">
+        <v>45109</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>45119</v>
-      </c>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
